--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,30 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -121,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -130,6 +136,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,45 +444,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -491,6 +504,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -513,6 +528,12 @@
         <f>D3*E3</f>
         <v>429</v>
       </c>
+      <c r="G3" s="9">
+        <v>429</v>
+      </c>
+      <c r="H3" s="9">
+        <v>429</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -535,6 +556,12 @@
         <f>D4*E4</f>
         <v>450</v>
       </c>
+      <c r="G4" s="9">
+        <v>450</v>
+      </c>
+      <c r="H4" s="9">
+        <v>450</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -557,6 +584,12 @@
         <f>D5*E5</f>
         <v>450</v>
       </c>
+      <c r="G5" s="9">
+        <v>450</v>
+      </c>
+      <c r="H5" s="9">
+        <v>450</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -577,6 +610,12 @@
       </c>
       <c r="F6" s="6">
         <f>D6*E6</f>
+        <v>1828</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1828</v>
+      </c>
+      <c r="H6" s="9">
         <v>1828</v>
       </c>
     </row>
@@ -586,7 +625,17 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(G3,G4,G5,G6)</f>
+        <v>3157</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H3,H4,H5,H6)</f>
+        <v>3157</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -595,81 +644,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <f>SUM(H7,-G7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,21 +620,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
+      <c r="A7" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5433</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C6</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>673.5</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(G3,G4,G5,G6)</f>
-        <v>3157</v>
+        <v>673.5</v>
       </c>
       <c r="H7" s="9">
-        <f>SUM(H3,H4,H5,H6)</f>
-        <v>3157</v>
+        <v>673.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,11 +652,29 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(G3,G4,G5,G6)</f>
+        <v>3157</v>
+      </c>
       <c r="H8" s="9">
-        <f>SUM(H7,-G7)</f>
+        <f>SUM(H3,H4,H5,H6)</f>
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,21 +648,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
+      <c r="A8" s="4">
+        <v>44112</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5583</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C7</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>706.5</v>
       </c>
       <c r="G8" s="9">
-        <f>SUM(G3,G4,G5,G6)</f>
-        <v>3157</v>
+        <v>706.5</v>
       </c>
       <c r="H8" s="9">
-        <f>SUM(H3,H4,H5,H6)</f>
-        <v>3157</v>
+        <v>706.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,11 +680,29 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G3,G4,G5,G8)</f>
+        <v>2035.5</v>
+      </c>
       <c r="H9" s="9">
-        <f>SUM(H8,-G8)</f>
+        <f>SUM(H3,H4,H5,H8)</f>
+        <v>2035.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <f>SUM(H9,-G9)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,14 +521,14 @@
         <v>4683</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C2</f>
+        <f t="shared" ref="D3:D8" si="0">C3-C2</f>
         <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>4.29</v>
       </c>
       <c r="F3" s="6">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
         <v>429</v>
       </c>
       <c r="G3" s="9">
@@ -546,14 +549,14 @@
         <v>4783</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="G4" s="9">
@@ -574,14 +577,14 @@
         <v>4883</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="8">
         <v>4.5</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="G5" s="9">
@@ -602,14 +605,14 @@
         <v>5283</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E6" s="8">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>1828</v>
       </c>
       <c r="G6" s="9">
@@ -630,14 +633,14 @@
         <v>5433</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E7" s="8">
         <v>4.49</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>673.5</v>
       </c>
       <c r="G7" s="9">
@@ -658,14 +661,14 @@
         <v>5583</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>706.5</v>
       </c>
       <c r="G8" s="9">
@@ -675,34 +678,84 @@
         <v>706.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44095</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G11" s="9">
         <f>SUM(G3,G4,G5,G8)</f>
         <v>2035.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H11" s="9">
         <f>SUM(H3,H4,H5,H8)</f>
         <v>2035.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <f>SUM(H9,-G9)</f>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>SUM(H11,-G11)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44095</v>
+        <v>44112</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -729,33 +729,88 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>44308</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:D12" si="2">C11-C10</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F12" si="3">D11*E11</f>
+        <v>471</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(F11,F12)</f>
+        <v>675</v>
+      </c>
+      <c r="H11" s="9">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>80</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G13" s="9">
         <f>SUM(G3,G4,G5,G8)</f>
         <v>2035.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H13" s="9">
         <f>SUM(H3,H4,H5,H8)</f>
         <v>2035.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>SUM(H11,-G11)</f>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <f>SUM(H13,-G13)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:D12" si="2">C11-C10</f>
+        <f t="shared" ref="D11" si="2">C11-C10</f>
         <v>100</v>
       </c>
       <c r="E11" s="8">
@@ -784,33 +784,85 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="A13" s="4">
+        <v>44373</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>250</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C11</f>
+        <v>150</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
+        <v>706.5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>757.50099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C12</f>
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G15" s="9">
         <f>SUM(G3,G4,G5,G8)</f>
         <v>2035.5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H15" s="9">
         <f>SUM(H3,H4,H5,H8)</f>
         <v>2035.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <f>SUM(H13,-G13)</f>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,10 @@
         <f t="shared" ref="F13:F14" si="4">D13*E13</f>
         <v>706.5</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <f>SUM(F13,F14)</f>
+        <v>757.5</v>
+      </c>
       <c r="H13" s="9">
         <v>757.50099999999998</v>
       </c>
@@ -836,34 +839,89 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="4">
+        <v>44400</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>350</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C13</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
+        <v>496</v>
       </c>
       <c r="G15" s="9">
-        <f>SUM(G3,G4,G5,G8)</f>
-        <v>2035.5</v>
+        <f>SUM(F15,F16)</f>
+        <v>549.6</v>
       </c>
       <c r="H15" s="9">
-        <f>SUM(H3,H4,H5,H8)</f>
-        <v>2035.5</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C14</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
+        <v>53.6</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
       <c r="H16" s="9">
-        <f>SUM(H15,-G15)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(G3:G16)</f>
+        <v>6519.1</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(H3:H16)</f>
+        <v>6491.5010000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <f>SUM(H17,-G17)</f>
+        <v>-27.59900000000016</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,21 +894,29 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
+      <c r="A17" s="4">
+        <v>44426</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
       </c>
       <c r="G17" s="9">
-        <f>SUM(G3:G16)</f>
-        <v>6519.1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f>SUM(H3:H16)</f>
-        <v>6491.5010000000002</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,12 +924,30 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(G3:G17)</f>
+        <v>6519.1</v>
+      </c>
       <c r="H18" s="9">
-        <f>SUM(H17,-G17)</f>
-        <v>-27.59900000000016</v>
+        <f>SUM(H3:H17)</f>
+        <v>6519.1010000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
+        <v>1.0000000002037268E-3</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -82,12 +85,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,7 +129,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,6 +148,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -469,491 +480,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42994</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4583</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43232</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4683</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">C3-C2</f>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44426</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44400</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>350</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-C5</f>
         <v>100</v>
       </c>
-      <c r="E3" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
-        <v>429</v>
-      </c>
-      <c r="G3" s="9">
-        <v>429</v>
-      </c>
-      <c r="H3" s="9">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43288</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4783</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E3" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F4" si="0">D3*E3</f>
+        <v>496</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(F3,F4)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H3" s="8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C6</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44373</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>250</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="G4" s="9">
-        <v>450</v>
-      </c>
-      <c r="H4" s="9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43309</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4883</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="G5" s="9">
-        <v>450</v>
-      </c>
-      <c r="H5" s="9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43635</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5283</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1828</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1828</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44007</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5433</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>673.5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>673.5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44112</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5583</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>706.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>706.5</v>
-      </c>
-      <c r="H8" s="9">
-        <v>706.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44112</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44308</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11" si="2">C11-C10</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F12" si="3">D11*E11</f>
-        <v>471</v>
-      </c>
-      <c r="G11" s="9">
-        <f>SUM(F11,F12)</f>
-        <v>675</v>
-      </c>
-      <c r="H11" s="9">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>80</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44373</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>250</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>150</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
-        <v>706.5</v>
-      </c>
-      <c r="G13" s="9">
-        <f>SUM(F13,F14)</f>
-        <v>757.5</v>
-      </c>
-      <c r="H13" s="9">
-        <v>757.50099999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>20</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44400</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>350</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C13</f>
-        <v>100</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
-        <v>496</v>
-      </c>
-      <c r="G15" s="9">
-        <f>SUM(F15,F16)</f>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(G2:G8)</f>
         <v>549.6</v>
       </c>
-      <c r="H15" s="9">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>120</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="5"/>
-        <v>53.6</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44426</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUM(G3:G17)</f>
-        <v>6519.1</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H3:H17)</f>
-        <v>6519.1010000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
-        <v>1.0000000002037268E-3</v>
+      <c r="H9" s="8">
+        <f>SUM(H2:H8)</f>
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <f>SUM(H9,-G9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/4ee.xlsx
+++ b/sputnik/personal/ee/4ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -85,7 +85,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +155,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,100 +516,113 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44426</v>
+        <v>44482</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>450</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-C5</f>
+        <v>100</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>496</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <f>SUM(F2,F3)</f>
+        <v>549.6</v>
       </c>
       <c r="H2" s="8">
-        <v>27.6</v>
+        <v>549.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44400</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-C5</f>
-        <v>100</v>
+        <f>C3-C6</f>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
-        <v>4.96</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F4" si="0">D3*E3</f>
-        <v>496</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(F3,F4)</f>
-        <v>549.6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>20</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.68</v>
-      </c>
-      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>44426</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44373</v>
+        <v>44400</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>250</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+        <v>350</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-C7</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F6" si="1">D5*E5</f>
+        <v>496</v>
+      </c>
+      <c r="G5" s="8">
+        <f>SUM(F5,F6)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>522</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -608,18 +630,36 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C8</f>
+        <v>20</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>53.6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="3">
+        <v>44373</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
@@ -628,8 +668,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5"/>
@@ -642,28 +686,48 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8">
-        <f>SUM(G2:G8)</f>
-        <v>549.6</v>
-      </c>
-      <c r="H9" s="8">
-        <f>SUM(H2:H8)</f>
-        <v>549.6</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <f>SUM(H9,-G9)</f>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM(G4:G10)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H11" s="8">
+        <f>SUM(H4:H10)</f>
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <f>SUM(H11,-G11)</f>
         <v>0</v>
       </c>
     </row>
